--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H2">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N2">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O2">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P2">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q2">
-        <v>555.7378176514037</v>
+        <v>13.23640490976845</v>
       </c>
       <c r="R2">
-        <v>555.7378176514037</v>
+        <v>119.127644187916</v>
       </c>
       <c r="S2">
-        <v>0.4615335486812511</v>
+        <v>0.007901928746574709</v>
       </c>
       <c r="T2">
-        <v>0.4615335486812511</v>
+        <v>0.007901928746574707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H3">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N3">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q3">
-        <v>308.5985692833367</v>
+        <v>6.815542710966112</v>
       </c>
       <c r="R3">
-        <v>308.5985692833367</v>
+        <v>61.33988439869501</v>
       </c>
       <c r="S3">
-        <v>0.2562873863816051</v>
+        <v>0.004068773450073687</v>
       </c>
       <c r="T3">
-        <v>0.2562873863816051</v>
+        <v>0.004068773450073686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>22.0937401382349</v>
+        <v>0.4857323333333334</v>
       </c>
       <c r="H4">
-        <v>22.0937401382349</v>
+        <v>1.457197</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01734267164097216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N4">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O4">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P4">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q4">
-        <v>6.432445155050512</v>
+        <v>0.1818670906927778</v>
       </c>
       <c r="R4">
-        <v>6.432445155050512</v>
+        <v>1.636803816235</v>
       </c>
       <c r="S4">
-        <v>0.005342068048660686</v>
+        <v>0.0001085718366730072</v>
       </c>
       <c r="T4">
-        <v>0.005342068048660686</v>
+        <v>0.0001085718366730072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,743 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.4857323333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.457197</v>
+      </c>
+      <c r="I5">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="J5">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.426419</v>
+      </c>
+      <c r="O5">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P5">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q5">
+        <v>0.06904183194922223</v>
+      </c>
+      <c r="R5">
+        <v>0.621376487543</v>
+      </c>
+      <c r="S5">
+        <v>4.121690446271512E-05</v>
+      </c>
+      <c r="T5">
+        <v>4.121690446271511E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.4857323333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.457197</v>
+      </c>
+      <c r="I6">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="J6">
+        <v>0.01734267164097216</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.009092</v>
+      </c>
+      <c r="N6">
+        <v>54.027276</v>
+      </c>
+      <c r="O6">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P6">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q6">
+        <v>8.747598278374667</v>
+      </c>
+      <c r="R6">
+        <v>78.72838450537201</v>
+      </c>
+      <c r="S6">
+        <v>0.005222180703188041</v>
+      </c>
+      <c r="T6">
+        <v>0.005222180703188041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.501526</v>
+      </c>
+      <c r="I7">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J7">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N7">
+        <v>81.751228</v>
+      </c>
+      <c r="O7">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P7">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q7">
+        <v>31.80600559710312</v>
+      </c>
+      <c r="R7">
+        <v>286.254050373928</v>
+      </c>
+      <c r="S7">
+        <v>0.01898769278023408</v>
+      </c>
+      <c r="T7">
+        <v>0.01898769278023408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.501526</v>
+      </c>
+      <c r="I8">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J8">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N8">
+        <v>42.094435</v>
+      </c>
+      <c r="O8">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P8">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q8">
+        <v>16.37719540086778</v>
+      </c>
+      <c r="R8">
+        <v>147.39475860781</v>
+      </c>
+      <c r="S8">
+        <v>0.009776932030152901</v>
+      </c>
+      <c r="T8">
+        <v>0.0097769320301529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.501526</v>
+      </c>
+      <c r="I9">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J9">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.123255</v>
+      </c>
+      <c r="O9">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P9">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q9">
+        <v>0.4370118430144445</v>
+      </c>
+      <c r="R9">
+        <v>3.933106587130001</v>
+      </c>
+      <c r="S9">
+        <v>0.0002608893025296431</v>
+      </c>
+      <c r="T9">
+        <v>0.000260889302529643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.501526</v>
+      </c>
+      <c r="I10">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J10">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.426419</v>
+      </c>
+      <c r="O10">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P10">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q10">
+        <v>0.1659019128215556</v>
+      </c>
+      <c r="R10">
+        <v>1.493117215394</v>
+      </c>
+      <c r="S10">
+        <v>9.904087272737524E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.904087272737522E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.167175333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.501526</v>
+      </c>
+      <c r="I11">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="J11">
+        <v>0.04167303093564335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.009092</v>
+      </c>
+      <c r="N11">
+        <v>54.027276</v>
+      </c>
+      <c r="O11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q11">
+        <v>21.01976795813067</v>
+      </c>
+      <c r="R11">
+        <v>189.177911623176</v>
+      </c>
+      <c r="S11">
+        <v>0.01254847594999935</v>
+      </c>
+      <c r="T11">
+        <v>0.01254847594999935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H12">
+        <v>79.065067</v>
+      </c>
+      <c r="I12">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J12">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N12">
+        <v>81.751228</v>
+      </c>
+      <c r="O12">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P12">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q12">
+        <v>718.1851465724751</v>
+      </c>
+      <c r="R12">
+        <v>6463.666319152276</v>
+      </c>
+      <c r="S12">
+        <v>0.4287454103852502</v>
+      </c>
+      <c r="T12">
+        <v>0.42874541038525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>22.0937401382349</v>
-      </c>
-      <c r="H5">
-        <v>22.0937401382349</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="N5">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="O5">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="P5">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="Q5">
-        <v>333.3425900144622</v>
-      </c>
-      <c r="R5">
-        <v>333.3425900144622</v>
-      </c>
-      <c r="S5">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="T5">
-        <v>0.2768369968884832</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H13">
+        <v>79.065067</v>
+      </c>
+      <c r="I13">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J13">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N13">
+        <v>42.094435</v>
+      </c>
+      <c r="O13">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P13">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q13">
+        <v>369.7999248446828</v>
+      </c>
+      <c r="R13">
+        <v>3328.199323602145</v>
+      </c>
+      <c r="S13">
+        <v>0.2207648282544482</v>
+      </c>
+      <c r="T13">
+        <v>0.2207648282544482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H14">
+        <v>79.065067</v>
+      </c>
+      <c r="I14">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J14">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.123255</v>
+      </c>
+      <c r="O14">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P14">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q14">
+        <v>9.867803537009445</v>
+      </c>
+      <c r="R14">
+        <v>88.81023183308501</v>
+      </c>
+      <c r="S14">
+        <v>0.005890925894621231</v>
+      </c>
+      <c r="T14">
+        <v>0.00589092589462123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H15">
+        <v>79.065067</v>
+      </c>
+      <c r="I15">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J15">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.426419</v>
+      </c>
+      <c r="O15">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P15">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q15">
+        <v>3.746094089452555</v>
+      </c>
+      <c r="R15">
+        <v>33.714846805073</v>
+      </c>
+      <c r="S15">
+        <v>0.00223636015780788</v>
+      </c>
+      <c r="T15">
+        <v>0.00223636015780788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>26.35502233333333</v>
+      </c>
+      <c r="H16">
+        <v>79.065067</v>
+      </c>
+      <c r="I16">
+        <v>0.9409842974233845</v>
+      </c>
+      <c r="J16">
+        <v>0.9409842974233844</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.009092</v>
+      </c>
+      <c r="N16">
+        <v>54.027276</v>
+      </c>
+      <c r="O16">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P16">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q16">
+        <v>474.6300218630547</v>
+      </c>
+      <c r="R16">
+        <v>4271.670196767492</v>
+      </c>
+      <c r="S16">
+        <v>0.283346772731257</v>
+      </c>
+      <c r="T16">
+        <v>0.283346772731257</v>
       </c>
     </row>
   </sheetData>
